--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_dampingfactor.xlsx
@@ -14,228 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.79966184741727</t>
-  </si>
-  <si>
-    <t>95.07705048134984</t>
-  </si>
-  <si>
-    <t>96.35443911528242</t>
-  </si>
-  <si>
-    <t>97.14925870972937</t>
-  </si>
-  <si>
-    <t>97.9724647182637</t>
-  </si>
-  <si>
-    <t>99.16469410993409</t>
-  </si>
-  <si>
-    <t>100.42079293330113</t>
-  </si>
-  <si>
-    <t>101.36937227072143</t>
-  </si>
-  <si>
-    <t>101.71947137779924</t>
-  </si>
-  <si>
-    <t>102.40074531589661</t>
-  </si>
-  <si>
-    <t>103.52673974136312</t>
-  </si>
-  <si>
-    <t>104.75681768515004</t>
-  </si>
-  <si>
-    <t>106.23291121769435</t>
-  </si>
-  <si>
-    <t>108.05531900210482</t>
-  </si>
-  <si>
-    <t>109.97991787722991</t>
-  </si>
-  <si>
-    <t>111.8534212069977</t>
-  </si>
-  <si>
-    <t>113.72692453676547</t>
-  </si>
-  <si>
-    <t>115.60042786653324</t>
-  </si>
-  <si>
-    <t>117.47393119630102</t>
-  </si>
-  <si>
-    <t>119.34743452606881</t>
-  </si>
-  <si>
-    <t>121.22093785583658</t>
-  </si>
-  <si>
-    <t>123.09444118560435</t>
-  </si>
-  <si>
-    <t>124.98497636382459</t>
-  </si>
-  <si>
-    <t>126.84144784513992</t>
-  </si>
-  <si>
-    <t>128.7149511749077</t>
-  </si>
-  <si>
-    <t>130.58845450467547</t>
-  </si>
-  <si>
-    <t>132.46195783444324</t>
-  </si>
-  <si>
-    <t>134.33546116421104</t>
-  </si>
-  <si>
-    <t>136.2089644939788</t>
-  </si>
-  <si>
-    <t>138.08246782374658</t>
-  </si>
-  <si>
-    <t>139.95597115351438</t>
-  </si>
-  <si>
-    <t>141.82947448328216</t>
-  </si>
-  <si>
-    <t>143.70297781304993</t>
-  </si>
-  <si>
-    <t>145.57648114281773</t>
-  </si>
-  <si>
-    <t>147.44998447258547</t>
-  </si>
-  <si>
-    <t>149.23832856009108</t>
-  </si>
-  <si>
-    <t>0.035191535018030316</t>
-  </si>
-  <si>
-    <t>0.04511560776968694</t>
-  </si>
-  <si>
-    <t>0.05831334125480675</t>
-  </si>
-  <si>
-    <t>0.07039816177677284</t>
-  </si>
-  <si>
-    <t>0.09472729029694038</t>
-  </si>
-  <si>
-    <t>0.13311808786700363</t>
-  </si>
-  <si>
-    <t>0.16665349898361317</t>
-  </si>
-  <si>
-    <t>0.21376303593274665</t>
-  </si>
-  <si>
-    <t>0.2980598855956991</t>
-  </si>
-  <si>
-    <t>0.36162819407914865</t>
-  </si>
-  <si>
-    <t>0.49518352277304933</t>
-  </si>
-  <si>
-    <t>0.6449494866836465</t>
-  </si>
-  <si>
-    <t>0.8628910348506145</t>
-  </si>
-  <si>
-    <t>1.0058395118883783</t>
-  </si>
-  <si>
-    <t>1.0452320820557108</t>
-  </si>
-  <si>
-    <t>1.0112561804008027</t>
-  </si>
-  <si>
-    <t>0.9303695455442496</t>
-  </si>
-  <si>
-    <t>0.8593266880535838</t>
-  </si>
-  <si>
-    <t>0.8143731091143582</t>
-  </si>
-  <si>
-    <t>0.7419241661957288</t>
-  </si>
-  <si>
-    <t>0.6616654991194472</t>
-  </si>
-  <si>
-    <t>0.6015991807412959</t>
-  </si>
-  <si>
-    <t>0.5654361303198363</t>
-  </si>
-  <si>
-    <t>0.5584078731443746</t>
-  </si>
-  <si>
-    <t>0.545376205978932</t>
-  </si>
-  <si>
-    <t>0.5250299276166764</t>
-  </si>
-  <si>
-    <t>0.5036649113006405</t>
-  </si>
-  <si>
-    <t>0.49430371461313255</t>
-  </si>
-  <si>
-    <t>0.47760546620997746</t>
-  </si>
-  <si>
-    <t>0.4832921001170896</t>
-  </si>
-  <si>
-    <t>0.46862325603920685</t>
-  </si>
-  <si>
-    <t>0.4752422809371984</t>
-  </si>
-  <si>
-    <t>0.4743002841167956</t>
-  </si>
-  <si>
-    <t>0.48420226097000746</t>
-  </si>
-  <si>
-    <t>0.4857950142394655</t>
-  </si>
-  <si>
-    <t>0.48625057290515056</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -608,291 +392,291 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="A2">
+        <v>93.79966184741727</v>
+      </c>
+      <c r="B2">
+        <v>0.03519153501803032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="A3">
+        <v>95.07705048134984</v>
+      </c>
+      <c r="B3">
+        <v>0.04511560776968694</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+      <c r="A4">
+        <v>96.35443911528242</v>
+      </c>
+      <c r="B4">
+        <v>0.05831334125480675</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="A5">
+        <v>97.14925870972937</v>
+      </c>
+      <c r="B5">
+        <v>0.07039816177677284</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+      <c r="A6">
+        <v>97.97246471826369</v>
+      </c>
+      <c r="B6">
+        <v>0.09472729029694038</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+      <c r="A7">
+        <v>99.16469410993409</v>
+      </c>
+      <c r="B7">
+        <v>0.1331180878670036</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
+      <c r="A8">
+        <v>100.4207929333011</v>
+      </c>
+      <c r="B8">
+        <v>0.1666534989836132</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+      <c r="A9">
+        <v>101.3693722707214</v>
+      </c>
+      <c r="B9">
+        <v>0.2137630359327466</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="A10">
+        <v>101.7194713777992</v>
+      </c>
+      <c r="B10">
+        <v>0.2980598855956991</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
+      <c r="A11">
+        <v>102.4007453158966</v>
+      </c>
+      <c r="B11">
+        <v>0.3616281940791486</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+      <c r="A12">
+        <v>103.5267397413631</v>
+      </c>
+      <c r="B12">
+        <v>0.4951835227730493</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="A13">
+        <v>104.75681768515</v>
+      </c>
+      <c r="B13">
+        <v>0.6449494866836465</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="A14">
+        <v>106.2329112176944</v>
+      </c>
+      <c r="B14">
+        <v>0.8628910348506145</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
+      <c r="A15">
+        <v>108.0553190021048</v>
+      </c>
+      <c r="B15">
+        <v>1.005839511888378</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
+      <c r="A16">
+        <v>109.9799178772299</v>
+      </c>
+      <c r="B16">
+        <v>1.045232082055711</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
+      <c r="A17">
+        <v>111.8534212069977</v>
+      </c>
+      <c r="B17">
+        <v>1.011256180400803</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
+      <c r="A18">
+        <v>113.7269245367655</v>
+      </c>
+      <c r="B18">
+        <v>0.9303695455442496</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+      <c r="A19">
+        <v>115.6004278665332</v>
+      </c>
+      <c r="B19">
+        <v>0.8593266880535838</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="A20">
+        <v>117.473931196301</v>
+      </c>
+      <c r="B20">
+        <v>0.8143731091143582</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
+      <c r="A21">
+        <v>119.3474345260688</v>
+      </c>
+      <c r="B21">
+        <v>0.7419241661957288</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
+      <c r="A22">
+        <v>121.2209378558366</v>
+      </c>
+      <c r="B22">
+        <v>0.6616654991194472</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
+      <c r="A23">
+        <v>123.0944411856044</v>
+      </c>
+      <c r="B23">
+        <v>0.6015991807412959</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
+      <c r="A24">
+        <v>124.9849763638246</v>
+      </c>
+      <c r="B24">
+        <v>0.5654361303198363</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
+      <c r="A25">
+        <v>126.8414478451399</v>
+      </c>
+      <c r="B25">
+        <v>0.5584078731443746</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
+      <c r="A26">
+        <v>128.7149511749077</v>
+      </c>
+      <c r="B26">
+        <v>0.545376205978932</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
+      <c r="A27">
+        <v>130.5884545046755</v>
+      </c>
+      <c r="B27">
+        <v>0.5250299276166764</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
+      <c r="A28">
+        <v>132.4619578344432</v>
+      </c>
+      <c r="B28">
+        <v>0.5036649113006405</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
+      <c r="A29">
+        <v>134.335461164211</v>
+      </c>
+      <c r="B29">
+        <v>0.4943037146131325</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
+      <c r="A30">
+        <v>136.2089644939788</v>
+      </c>
+      <c r="B30">
+        <v>0.4776054662099775</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
+      <c r="A31">
+        <v>138.0824678237466</v>
+      </c>
+      <c r="B31">
+        <v>0.4832921001170896</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
+      <c r="A32">
+        <v>139.9559711535144</v>
+      </c>
+      <c r="B32">
+        <v>0.4686232560392068</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
+      <c r="A33">
+        <v>141.8294744832822</v>
+      </c>
+      <c r="B33">
+        <v>0.4752422809371984</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
+      <c r="A34">
+        <v>143.7029778130499</v>
+      </c>
+      <c r="B34">
+        <v>0.4743002841167956</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
+      <c r="A35">
+        <v>145.5764811428177</v>
+      </c>
+      <c r="B35">
+        <v>0.4842022609700075</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
+      <c r="A36">
+        <v>147.4499844725855</v>
+      </c>
+      <c r="B36">
+        <v>0.4857950142394655</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
+      <c r="A37">
+        <v>149.2383285600911</v>
+      </c>
+      <c r="B37">
+        <v>0.4862505729051506</v>
       </c>
     </row>
   </sheetData>
